--- a/data/templates/Tramo_3s/Comprobacion/PlantillaBaseQ2K.xlsx
+++ b/data/templates/Tramo_3s/Comprobacion/PlantillaBaseQ2K.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Bernal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyecto_UB_2025\Modelo_Q2K_python\data\templates\Tramo_3s\Comprobacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F19C3D7-ACAC-47D3-82A7-3CA2DEFE6B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B05B55-7A4E-4AC2-B554-1A4C12F1C238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{7CAB968E-70C7-47AF-B60B-C3245F72BAF9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7CAB968E-70C7-47AF-B60B-C3245F72BAF9}"/>
   </bookViews>
   <sheets>
     <sheet name="REACHES" sheetId="1" r:id="rId1"/>
@@ -862,25 +862,25 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="43.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="11.54296875" style="3"/>
-    <col min="9" max="10" width="16.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="43.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.5546875" style="3"/>
+    <col min="9" max="10" width="16.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="14" style="3" customWidth="1"/>
-    <col min="13" max="16" width="11.54296875" style="3"/>
-    <col min="17" max="17" width="10.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.54296875" style="3"/>
+    <col min="13" max="16" width="11.5546875" style="3"/>
+    <col min="17" max="17" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -945,7 +945,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>47</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>48</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>49</v>
       </c>
@@ -1285,41 +1285,41 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="75.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.08984375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="22.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.1796875" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.54296875" style="1"/>
+    <col min="15" max="15" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.21875" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>51</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>7.27</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>52</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>7.2355000000000018</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>52</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>53</v>
       </c>
@@ -1639,7 +1639,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>55</v>
       </c>
@@ -1699,7 +1699,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>56</v>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>57</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>58</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>59</v>
       </c>
@@ -1943,7 +1943,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>60</v>
       </c>
@@ -2004,7 +2004,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>72</v>
       </c>
@@ -2066,7 +2066,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>87</v>
       </c>
@@ -2135,7 +2135,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>88</v>
       </c>
@@ -2203,7 +2203,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>89</v>
       </c>
@@ -2271,7 +2271,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>90</v>
       </c>
@@ -2324,7 +2324,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>91</v>
       </c>
@@ -2392,7 +2392,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>79</v>
       </c>
@@ -2415,7 +2415,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>80</v>
       </c>
@@ -2438,7 +2438,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>81</v>
       </c>
@@ -2461,7 +2461,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>82</v>
       </c>
@@ -2484,7 +2484,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>83</v>
       </c>
@@ -2507,7 +2507,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>84</v>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>54</v>
       </c>
@@ -2595,7 +2595,7 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>61</v>
       </c>
@@ -2666,7 +2666,7 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>62</v>
       </c>
@@ -2713,7 +2713,7 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>92</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="H27" s="6">
-        <v>298.5</v>
+        <v>3900</v>
       </c>
       <c r="I27" s="1">
         <v>26</v>
@@ -2781,7 +2781,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="F31" s="15"/>
     </row>
   </sheetData>
@@ -2795,34 +2795,34 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="2"/>
-    <col min="9" max="9" width="17.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.54296875" style="2"/>
-    <col min="12" max="12" width="22.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.54296875" style="2"/>
+    <col min="8" max="8" width="11.5546875" style="2"/>
+    <col min="9" max="9" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.5546875" style="2"/>
+    <col min="12" max="12" width="22.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.5546875" style="2"/>
     <col min="15" max="15" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.54296875" style="2"/>
+    <col min="16" max="16" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5546875" style="2"/>
     <col min="20" max="20" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.54296875" style="2"/>
+    <col min="21" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="16" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" s="16" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>50</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>7.21</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>63</v>
       </c>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="W3" s="16"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>64</v>
       </c>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="W4" s="16"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>65</v>
       </c>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="W5" s="16"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>66</v>
       </c>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="W6" s="16"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>67</v>
       </c>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="W7" s="16"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>68</v>
       </c>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="W8" s="16"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>69</v>
       </c>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="W9" s="16"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>70</v>
       </c>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="W10" s="16"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>71</v>
       </c>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="W11" s="16"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>78</v>
       </c>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="W12" s="16"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>73</v>
       </c>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="W13" s="16"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>74</v>
       </c>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="W14" s="16"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>75</v>
       </c>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="W15" s="16"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>76</v>
       </c>
@@ -3770,7 +3770,7 @@
       </c>
       <c r="W16" s="16"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>77</v>
       </c>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="W17" s="16"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>93</v>
       </c>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="W18" s="16"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -3870,7 +3870,7 @@
       <c r="F19" s="2"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3878,7 +3878,7 @@
       <c r="F20" s="2"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3886,7 +3886,7 @@
       <c r="F21" s="2"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -3894,7 +3894,7 @@
       <c r="F22" s="2"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3902,7 +3902,7 @@
       <c r="F23" s="2"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -3910,46 +3910,46 @@
       <c r="F24" s="2"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38" s="2"/>
     </row>
   </sheetData>
